--- a/Iteration4/TimeLog-Iteration4.xlsx
+++ b/Iteration4/TimeLog-Iteration4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Software Engineering\Assignment 1\Iteration4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653F26E-C814-4870-80DF-7B55EAC46EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8653F26E-C814-4870-80DF-7B55EAC46EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{36955B61-7710-472D-B26B-36B3ADC1BA1A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -372,9 +372,6 @@
     <t>7:26pm</t>
   </si>
   <si>
-    <t>Start iteration 4</t>
-  </si>
-  <si>
     <t>4:49pm</t>
   </si>
   <si>
@@ -385,6 +382,48 @@
   </si>
   <si>
     <t>7:50pm</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>2:20pm</t>
+  </si>
+  <si>
+    <t>3:42pm</t>
+  </si>
+  <si>
+    <t>8:12pm</t>
+  </si>
+  <si>
+    <t>8:47pm</t>
+  </si>
+  <si>
+    <t>8:48pm</t>
+  </si>
+  <si>
+    <t>9:00pm</t>
+  </si>
+  <si>
+    <t>Start Iteration 4</t>
+  </si>
+  <si>
+    <t>Start coding appendix 2.4</t>
+  </si>
+  <si>
+    <t>Write the tests</t>
+  </si>
+  <si>
+    <t>8:32pm</t>
+  </si>
+  <si>
+    <t>9:53pm</t>
+  </si>
+  <si>
+    <t>More testing and writing test automation</t>
   </si>
 </sst>
 </file>
@@ -641,6 +680,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -656,7 +696,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,7 +1037,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
@@ -1084,7 +1123,7 @@
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,10 +1137,10 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,17 +1151,76 @@
         <v>43580</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
+      <c r="C11" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
@@ -1171,7 +1269,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1179,31 +1277,31 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1211,13 +1309,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1345,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1255,13 +1353,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
